--- a/document/股票/收入流水表.xlsx
+++ b/document/股票/收入流水表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="存款" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>表格 1</t>
+  </si>
+  <si>
+    <t>我的招商</t>
+  </si>
+  <si>
+    <t>招商</t>
   </si>
   <si>
     <t>记账日期</t>
@@ -28,7 +34,59 @@
     <t>财务月份</t>
   </si>
   <si>
-    <t>总结余(不算股票+流动+大额)</t>
+    <r>
+      <t>总结余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不算股票</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -567,6 +625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -577,6 +641,114 @@
         <charset val="134"/>
       </rPr>
       <t>月份工资</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月末</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月份工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无奖金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月初发的工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半月奖金充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万股票</t>
     </r>
   </si>
   <si>
@@ -628,12 +800,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -682,6 +854,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
@@ -712,6 +903,13 @@
       <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,13 +966,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -822,6 +1013,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
@@ -830,11 +1029,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -843,7 +1041,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +1080,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -889,6 +1099,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,67 +1176,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,24 +1219,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,12 +1243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,152 +1506,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1505,25 +1709,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2735,14 +2963,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1"/>
@@ -2786,182 +3014,154 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="64.5" customHeight="1" spans="1:19">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="30.95" customHeight="1" spans="1:19">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="22.7" customHeight="1" spans="1:19">
-      <c r="A3" s="14">
-        <v>41933</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="3" ht="64.5" customHeight="1" spans="1:19">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16">
-        <v>69.35</v>
-      </c>
-      <c r="D3" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>24.65</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>9</v>
-      </c>
-      <c r="I3" s="17">
-        <v>15</v>
-      </c>
-      <c r="J3" s="17">
-        <v>4.2</v>
-      </c>
-      <c r="K3" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="L3" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="M3" s="17">
-        <v>0.44</v>
-      </c>
-      <c r="N3" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="O3" s="17">
-        <v>0</v>
-      </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A4" s="20">
-        <v>42045</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" ht="22.7" customHeight="1" spans="1:19">
+      <c r="A4" s="14">
+        <v>41933</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="16">
+        <v>69.35</v>
+      </c>
+      <c r="D4" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>24.65</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="N4" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
-        <v>72.3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="F4" s="4">
-        <v>24.65</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4">
-        <v>6</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="N4" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="27"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:19">
-      <c r="A5" s="20">
-        <v>42048</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" ht="20.45" customHeight="1" spans="1:19">
+      <c r="A5" s="25">
+        <v>42045</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="4">
-        <v>75.95</v>
+        <v>72.3</v>
       </c>
       <c r="D5" s="4">
         <v>8.5</v>
       </c>
       <c r="E5" s="4">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="F5" s="4">
         <v>24.65</v>
@@ -2973,7 +3173,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="4">
-        <v>17.3</v>
+        <v>14.3</v>
       </c>
       <c r="J5" s="4">
         <v>5</v>
@@ -2996,49 +3196,49 @@
       <c r="P5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A6" s="10">
-        <v>20190709</v>
-      </c>
-      <c r="B6" s="21" t="s">
+    <row r="6" ht="55.5" customHeight="1" spans="1:19">
+      <c r="A6" s="25">
+        <v>42048</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="4">
-        <v>78.4</v>
+        <v>75.95</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E6" s="4">
         <v>1.3</v>
       </c>
       <c r="F6" s="4">
-        <v>16.8</v>
+        <v>24.65</v>
       </c>
       <c r="G6" s="4">
-        <v>10.8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="4">
-        <v>21.6</v>
+        <v>17.3</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="4">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N6" s="4">
         <v>6.5</v>
@@ -3046,50 +3246,52 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="35"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" ht="20.45" customHeight="1" spans="1:19">
       <c r="A7" s="10">
-        <v>20190928</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>25</v>
+        <v>20190709</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="4">
-        <v>83.8</v>
+        <v>79.3</v>
       </c>
       <c r="D7" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4">
         <v>1.3</v>
       </c>
       <c r="F7" s="4">
-        <v>26.8</v>
+        <v>16.8</v>
       </c>
       <c r="G7" s="4">
-        <v>1.8</v>
+        <v>10.8</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
       </c>
       <c r="I7" s="4">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="J7" s="4">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4">
         <v>4.1</v>
       </c>
       <c r="L7" s="4">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="M7" s="4">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>6.5</v>
@@ -3098,70 +3300,162 @@
         <v>0</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="A8" s="10">
+        <v>20190928</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="27"/>
+      <c r="A9" s="10">
+        <v>20191231</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>95.2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.6</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="28"/>
+      <c r="A10" s="10">
+        <v>20200112</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4">
+        <v>95.2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="N10" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="35"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
@@ -3182,7 +3476,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
@@ -3291,7 +3585,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" ht="20.45" customHeight="1" spans="1:16">
+    <row r="17" ht="20.45" customHeight="1" spans="1:19">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="4"/>
@@ -3308,6 +3602,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" ht="20.45" customHeight="1" spans="1:16">
       <c r="A18" s="10"/>
@@ -3399,10 +3696,29 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
+    <row r="23" ht="20.45" customHeight="1" spans="1:16">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="Q4:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3446,43 +3762,43 @@
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:13">
       <c r="A1" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="22.7" customHeight="1" spans="1:13">
@@ -3490,7 +3806,7 @@
         <v>41933</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="16">
         <v>28178</v>
@@ -3765,18 +4081,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="60" spans="1:5">
+    <row r="1" ht="61.5" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4"/>
     </row>

--- a/document/股票/收入流水表.xlsx
+++ b/document/股票/收入流水表.xlsx
@@ -8,16 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="存款" sheetId="1" r:id="rId1"/>
-    <sheet name="收入与支出" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表 4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>表格 1</t>
   </si>
@@ -28,6 +25,12 @@
     <t>招商</t>
   </si>
   <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>负债</t>
+  </si>
+  <si>
     <t>记账日期</t>
   </si>
   <si>
@@ -35,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>总结余</t>
     </r>
     <r>
@@ -336,18 +346,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>备注</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -356,7 +360,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -365,7 +369,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -374,7 +378,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -384,7 +388,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -393,7 +397,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -403,7 +407,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -412,7 +416,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -421,7 +425,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -430,7 +434,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -440,7 +444,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -449,7 +453,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -459,7 +463,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -469,7 +473,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -478,7 +482,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -487,7 +491,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -703,6 +707,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -752,45 +762,268 @@
     </r>
   </si>
   <si>
-    <t>我工资</t>
+    <t>发年终奖以及交房贷尾款</t>
   </si>
   <si>
-    <t>媳妇工资</t>
+    <r>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万股票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+128328</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房贷尾款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+7.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万年终奖+大姑换我3万+过年给父母5千+岳父5千+姥姥2千</t>
+    </r>
   </si>
   <si>
-    <t>公积金</t>
-  </si>
-  <si>
-    <t>房租</t>
-  </si>
-  <si>
-    <t>贷款</t>
-  </si>
-  <si>
-    <t>生活费</t>
-  </si>
-  <si>
-    <t>总收入</t>
-  </si>
-  <si>
-    <t>剩余</t>
-  </si>
-  <si>
-    <t>大额</t>
-  </si>
-  <si>
-    <t>增加存款</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>微信</t>
+    <r>
+      <t>本来是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超过了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但由于多存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万到股票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万的房贷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万的过年给父母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因此等于消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又距离百万梦有距离了</t>
     </r>
   </si>
 </sst>
@@ -799,52 +1032,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -868,6 +1066,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -878,6 +1083,26 @@
       <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -892,6 +1117,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
@@ -903,13 +1148,6 @@
       <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,6 +1204,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1013,7 +1258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
@@ -1021,6 +1265,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
@@ -1034,19 +1279,25 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1056,13 +1307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,13 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,19 +1367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,55 +1409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,6 +1440,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,6 +1482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,36 +1518,6 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,6 +1593,36 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,255 +1751,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="26" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="32" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="8" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2966,753 +3199,792 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.2857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.71428571428571" style="5" customWidth="1"/>
-    <col min="4" max="5" width="7.71428571428571" style="5" customWidth="1"/>
-    <col min="6" max="8" width="9" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.42857142857143" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="12" width="10" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.85714285714286" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.28571428571429" style="5" customWidth="1"/>
-    <col min="16" max="16" width="30.2857142857143" style="5" customWidth="1"/>
-    <col min="17" max="17" width="37.8571428571429" style="5" customWidth="1"/>
-    <col min="18" max="260" width="16.2857142857143" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16" width="76.2857142857143" style="1" customWidth="1"/>
+    <col min="17" max="17" width="37.8571428571429" style="1" customWidth="1"/>
+    <col min="18" max="18" width="102.142857142857" style="1" customWidth="1"/>
+    <col min="19" max="260" width="16.2857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.95" customHeight="1" spans="1:19">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:19">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="N2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" ht="64.5" customHeight="1" spans="1:19">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="K3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="L3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="M3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="N3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="O3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4" ht="22.7" customHeight="1" spans="1:19">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <v>41933</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13">
         <v>69.35</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>7.5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>24.65</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>9</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>15</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>4.2</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>2.5</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14">
         <v>6.5</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>0.44</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <v>6.5</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <v>0</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="P4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A5" s="25">
+      <c r="A5" s="15">
         <v>42045</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17">
         <v>72.3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="17">
         <v>8.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="17">
         <v>0.65</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="17">
         <v>24.65</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="17">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="17">
         <v>5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="17">
         <v>14.3</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="17">
         <v>5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="17">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="17">
         <v>6</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="17">
         <v>1.2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="17">
         <v>6.5</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="17">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="P5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" ht="55.5" customHeight="1" spans="1:19">
-      <c r="A6" s="25">
+      <c r="A6" s="15">
         <v>42048</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17">
         <v>75.95</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="17">
         <v>8.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="17">
         <v>1.3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="17">
         <v>24.65</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="17">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="17">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="17">
         <v>17.3</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="17">
         <v>3</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="17">
         <v>6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="17">
         <v>1.2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="17">
         <v>6.5</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="17">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A7" s="10">
+      <c r="A7" s="19">
         <v>20190709</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17">
         <v>79.3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="17">
         <v>1.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="17">
         <v>16.8</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="17">
         <v>10.8</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="17">
         <v>5</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="17">
         <v>21.6</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="17">
         <v>5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="17">
         <v>4.1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="17">
         <v>6.7</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="17">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="17">
         <v>6.5</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="17">
         <v>0</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A8" s="10">
+      <c r="A8" s="19">
         <v>20190928</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17">
         <v>83.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
         <v>1.3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <v>26.8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="17">
         <v>1.8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="17">
         <v>21.7</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="17">
         <v>5.6</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="17">
         <v>4.1</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="17">
         <v>7.4</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="17">
         <v>4.1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="17">
         <v>6.5</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="17">
         <v>0</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A9" s="10">
+      <c r="A9" s="19">
         <v>20191231</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17">
         <v>95.2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="17">
         <v>6</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="17">
         <v>1.3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="17">
         <v>30</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="17">
         <v>4.6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="17">
         <v>5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="17">
         <v>21.8</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="17">
         <v>5.6</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="17">
         <v>4.1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="17">
         <v>7.4</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="17">
         <v>9.4</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="17">
         <v>6.5</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="17">
         <v>0</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A10" s="10">
+      <c r="A10" s="19">
         <v>20200112</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17">
         <v>95.2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="17">
         <v>1.3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="17">
         <v>30</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="17">
         <v>4.6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="17">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="17">
         <v>21.8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="17">
         <v>5.6</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="17">
         <v>4.1</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="17">
         <v>7.4</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="17">
         <v>9.4</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="17">
         <v>11.5</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="17">
         <v>0</v>
       </c>
-      <c r="P10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="P10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="A11" s="19">
+        <v>20200201</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="17">
+        <v>84.2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F11" s="17">
+        <v>30</v>
+      </c>
+      <c r="G11" s="17">
+        <v>4.6</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5</v>
+      </c>
+      <c r="I11" s="17">
+        <v>21.8</v>
+      </c>
+      <c r="J11" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="K11" s="17">
+        <v>4.1</v>
+      </c>
+      <c r="L11" s="17">
+        <v>7.4</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="N11" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="O11" s="17">
+        <v>140328</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="17"/>
     </row>
     <row r="12" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
     </row>
     <row r="14" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
     </row>
     <row r="15" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
     </row>
     <row r="18" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3726,378 +3998,4 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12.2857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.28571428571429" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.85714285714286" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.28571428571429" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.28571428571429" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.57142857142857" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5714285714286" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.71428571428571" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.28571428571429" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.57142857142857" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.28571428571429" style="5" customWidth="1"/>
-    <col min="13" max="256" width="16.2857142857143" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.6" customHeight="1" spans="1:13">
-      <c r="A1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" ht="22.7" customHeight="1" spans="1:13">
-      <c r="A2" s="14">
-        <v>41933</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16">
-        <v>28178</v>
-      </c>
-      <c r="D2" s="16">
-        <v>28568</v>
-      </c>
-      <c r="E2" s="16">
-        <v>19147</v>
-      </c>
-      <c r="F2" s="17">
-        <v>6500</v>
-      </c>
-      <c r="G2" s="17">
-        <v>6500</v>
-      </c>
-      <c r="H2" s="17">
-        <v>6500</v>
-      </c>
-      <c r="I2" s="17">
-        <f>C2+D2+E2</f>
-        <v>75893</v>
-      </c>
-      <c r="J2" s="17">
-        <f>I2-F2-G2-H2</f>
-        <v>56393</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>5</v>
-      </c>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" ht="20.45" customHeight="1" spans="1:13">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="256" width="16.2857142857143" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.65" customHeight="1" spans="1:5">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" ht="20.65" customHeight="1" spans="1:5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="20.45" customHeight="1" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="61.5" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/document/股票/收入流水表.xlsx
+++ b/document/股票/收入流水表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="存款" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>表格 1</t>
   </si>
@@ -126,7 +126,7 @@
     <t>张微信</t>
   </si>
   <si>
-    <t>我账户公积金卡--可以用于临时大额开销）</t>
+    <t>活期存款</t>
   </si>
   <si>
     <r>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>备注</t>
     </r>
     <r>
@@ -766,6 +772,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>追加</t>
     </r>
     <r>
@@ -825,6 +837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>本来是</t>
     </r>
     <r>
@@ -1024,6 +1042,173 @@
         <charset val="134"/>
       </rPr>
       <t>又距离百万梦有距离了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月份工资尚未发前</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万股票,哈尔滨房子开发商在5月6日退款9800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月份工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖金后</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万追加股票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>借小汽车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高丹丹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
     </r>
   </si>
 </sst>
@@ -1032,9 +1217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
@@ -1343,24 +1528,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1373,19 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1570,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,19 +1636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,43 +1654,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,145 +1939,145 @@
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3203,7 +3388,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1"/>
@@ -3753,43 +3938,103 @@
       <c r="S11" s="17"/>
     </row>
     <row r="12" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="A12" s="19">
+        <v>20200510</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="17">
+        <v>83.7</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>31</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>5.1</v>
+      </c>
+      <c r="I12" s="17">
+        <v>21.9</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="K12" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="L12" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="M12" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="17">
+        <v>25.5</v>
+      </c>
       <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="P12" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
     </row>
     <row r="13" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="A13" s="19">
+        <v>20200719</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="17">
+        <v>82.3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F13" s="17">
+        <v>28.2</v>
+      </c>
+      <c r="G13" s="17">
+        <v>4.4</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5.1</v>
+      </c>
+      <c r="I13" s="17">
+        <v>22</v>
+      </c>
+      <c r="J13" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="K13" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>41.5</v>
+      </c>
       <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="P13" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>

--- a/document/股票/收入流水表.xlsx
+++ b/document/股票/收入流水表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>表格 1</t>
   </si>
@@ -1095,6 +1095,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -1127,6 +1133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>16</t>
     </r>
     <r>
@@ -1209,6 +1221,56 @@
         <charset val="134"/>
       </rPr>
       <t>万</t>
+    </r>
+  </si>
+  <si>
+    <t>资金转移</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把张佩娟的钱存到股票账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了科创板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万,追加8.5万,其中张佩娟6.3w,活期2.2</t>
     </r>
   </si>
 </sst>
@@ -1217,11 +1279,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1339,7 +1401,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1359,15 +1452,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,9 +1467,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1386,29 +1485,6 @@
       <color rgb="FF800080"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1428,33 +1504,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1528,6 +1590,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1540,7 +1632,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,97 +1728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,25 +1740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,30 +1911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1890,20 +1928,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,153 +1958,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3388,7 +3450,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1"/>
@@ -4040,41 +4102,97 @@
       <c r="S13" s="17"/>
     </row>
     <row r="14" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="A14" s="19">
+        <v>20200721</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="17">
+        <v>73.8</v>
+      </c>
+      <c r="D14" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F14" s="17">
+        <v>28.2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2.2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>5.1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>22</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>50</v>
+      </c>
       <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="P14" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
     </row>
     <row r="15" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A15" s="19"/>
+      <c r="A15" s="19">
+        <v>20200816</v>
+      </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="C15" s="17">
+        <v>76.1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="17">
+        <v>26.2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>6</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>23.5</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>50</v>
+      </c>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>

--- a/document/股票/收入流水表.xlsx
+++ b/document/股票/收入流水表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="存款" sheetId="1" r:id="rId1"/>
+    <sheet name="存款2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>表格 1</t>
   </si>
@@ -1271,6 +1272,96 @@
         <charset val="134"/>
       </rPr>
       <t>万,追加8.5万,其中张佩娟6.3w,活期2.2</t>
+    </r>
+  </si>
+  <si>
+    <t>总结余</t>
+  </si>
+  <si>
+    <r>
+      <t>总结余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不算股票</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>张华泰</t>
+  </si>
+  <si>
+    <t>我华泰</t>
+  </si>
+  <si>
+    <t>我妈</t>
+  </si>
+  <si>
+    <r>
+      <t>我妈投资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
     </r>
   </si>
 </sst>
@@ -1279,34 +1370,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="8"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
@@ -1339,6 +1412,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.5"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1361,12 +1472,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1399,15 +1504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,6 +1517,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1429,7 +1579,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -1444,22 +1594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,43 +1617,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1590,43 +1695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,13 +1719,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,7 +1761,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,67 +1815,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,6 +2017,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1930,41 +2050,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1993,206 +2078,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="32" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="32" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2201,40 +2318,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="1" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="8" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="8" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3445,909 +3562,909 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.71428571428571" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85714285714286" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28571428571429" style="1" customWidth="1"/>
-    <col min="16" max="16" width="76.2857142857143" style="1" customWidth="1"/>
-    <col min="17" max="17" width="37.8571428571429" style="1" customWidth="1"/>
-    <col min="18" max="18" width="102.142857142857" style="1" customWidth="1"/>
-    <col min="19" max="260" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.2857142857143" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.7142857142857" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.71428571428571" style="9" customWidth="1"/>
+    <col min="4" max="5" width="7.71428571428571" style="9" customWidth="1"/>
+    <col min="6" max="8" width="9" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.42857142857143" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9" customWidth="1"/>
+    <col min="11" max="12" width="10" style="9" customWidth="1"/>
+    <col min="13" max="13" width="11" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.85714285714286" style="9" customWidth="1"/>
+    <col min="15" max="15" width="8.28571428571429" style="9" customWidth="1"/>
+    <col min="16" max="16" width="76.2857142857143" style="9" customWidth="1"/>
+    <col min="17" max="17" width="37.8571428571429" style="9" customWidth="1"/>
+    <col min="18" max="18" width="102.142857142857" style="9" customWidth="1"/>
+    <col min="19" max="260" width="16.2857142857143" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.95" customHeight="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" ht="64.5" customHeight="1" spans="1:19">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" ht="22.7" customHeight="1" spans="1:19">
-      <c r="A4" s="11">
+      <c r="A4" s="15">
         <v>41933</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <v>69.35</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="18">
         <v>7.5</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="18">
         <v>24.65</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="18">
         <v>9</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="18">
         <v>15</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="18">
         <v>4.2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="18">
         <v>2.5</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="18">
         <v>6.5</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="18">
         <v>0.44</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="18">
         <v>6.5</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="18">
         <v>0</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A5" s="15">
+      <c r="A5" s="19">
         <v>42045</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="21">
         <v>72.3</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="21">
         <v>8.5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="21">
         <v>0.65</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="21">
         <v>24.65</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="21">
         <v>4</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="21">
         <v>5</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="21">
         <v>14.3</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="21">
         <v>5</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="21">
         <v>3</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="21">
         <v>6</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="21">
         <v>1.2</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="21">
         <v>6.5</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="21">
         <v>0</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" ht="55.5" customHeight="1" spans="1:19">
-      <c r="A6" s="15">
+      <c r="A6" s="19">
         <v>42048</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="21">
         <v>75.95</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="21">
         <v>8.5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="21">
         <v>1.3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="21">
         <v>24.65</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="21">
         <v>4</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="21">
         <v>5</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="21">
         <v>17.3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="21">
         <v>5</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="21">
         <v>3</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="21">
         <v>6</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="21">
         <v>1.2</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="21">
         <v>6.5</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="21">
         <v>0</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A7" s="19">
+      <c r="A7" s="23">
         <v>20190709</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="21">
         <v>79.3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="21">
         <v>8</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="21">
         <v>1.3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="21">
         <v>16.8</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="21">
         <v>10.8</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="21">
         <v>5</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="21">
         <v>21.6</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="21">
         <v>5</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="21">
         <v>4.1</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="21">
         <v>6.7</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="21">
         <v>0</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="21">
         <v>6.5</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="21">
         <v>0</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A8" s="19">
+      <c r="A8" s="23">
         <v>20190928</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="21">
         <v>83.8</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="21">
         <v>6</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="21">
         <v>1.3</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="21">
         <v>26.8</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="21">
         <v>1.8</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="21">
         <v>5</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="21">
         <v>21.7</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="21">
         <v>5.6</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="21">
         <v>4.1</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="21">
         <v>7.4</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="21">
         <v>4.1</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="21">
         <v>6.5</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A9" s="19">
+      <c r="A9" s="23">
         <v>20191231</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="21">
         <v>95.2</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="21">
         <v>6</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="21">
         <v>1.3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="21">
         <v>30</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="21">
         <v>4.6</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="21">
         <v>5</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="21">
         <v>21.8</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="21">
         <v>5.6</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="21">
         <v>4.1</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="21">
         <v>7.4</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="21">
         <v>9.4</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="21">
         <v>6.5</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="21">
         <v>0</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A10" s="19">
+      <c r="A10" s="23">
         <v>20200112</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="21">
         <v>95.2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="21">
         <v>6</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="21">
         <v>1.3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="21">
         <v>30</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="21">
         <v>4.6</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="21">
         <v>5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="21">
         <v>21.8</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="21">
         <v>5.6</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="21">
         <v>4.1</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="21">
         <v>7.4</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="21">
         <v>9.4</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="21">
         <v>11.5</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="21">
         <v>0</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A11" s="19">
+      <c r="A11" s="23">
         <v>20200201</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="21">
         <v>84.2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="21">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="21">
         <v>1.3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="21">
         <v>30</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="21">
         <v>4.6</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="21">
         <v>5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="21">
         <v>21.8</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="21">
         <v>5.6</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="21">
         <v>4.1</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="21">
         <v>7.4</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="21">
         <v>1.4</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="21">
         <v>16.5</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="21">
         <v>140328</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="29" t="s">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="17"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A12" s="19">
+      <c r="A12" s="23">
         <v>20200510</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="21">
         <v>83.7</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="21">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="21">
         <v>1.3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="21">
         <v>31</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="21">
         <v>2.1</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="21">
         <v>5.1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="21">
         <v>21.9</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="21">
         <v>6.2</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="21">
         <v>3.1</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="21">
         <v>7.5</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="21">
         <v>2.5</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="21">
         <v>25.5</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="29" t="s">
+      <c r="O12" s="21"/>
+      <c r="P12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A13" s="19">
+      <c r="A13" s="23">
         <v>20200719</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="21">
         <v>82.3</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="21">
         <v>10.5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="21">
         <v>1.3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="21">
         <v>28.2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="21">
         <v>4.4</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="21">
         <v>5.1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="21">
         <v>22</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="21">
         <v>6.3</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="21">
         <v>2</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="21">
         <v>2.5</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="21">
         <v>0</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="21">
         <v>41.5</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="28" t="s">
+      <c r="O13" s="21"/>
+      <c r="P13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A14" s="19">
+      <c r="A14" s="23">
         <v>20200721</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="21">
         <v>73.8</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="21">
         <v>10.5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="21">
         <v>1.3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="21">
         <v>28.2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="21">
         <v>2.2</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="21">
         <v>5.1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="21">
         <v>22</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="21">
         <v>0</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="21">
         <v>2</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="21">
         <v>2.5</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="21">
         <v>0</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="21">
         <v>50</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="29" t="s">
+      <c r="O14" s="21"/>
+      <c r="P14" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A15" s="19">
+      <c r="A15" s="23">
         <v>20200816</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17">
+      <c r="B15" s="22"/>
+      <c r="C15" s="21">
         <v>76.1</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="21">
         <v>12.5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="21">
         <v>1.3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="21">
         <v>26.2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="21">
         <v>6</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="21">
         <v>3.1</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="21">
         <v>23.5</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="21">
         <v>0</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="21">
         <v>1</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="21">
         <v>2.5</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="21">
         <v>0</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="21">
         <v>50</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" ht="20.45" customHeight="1" spans="1:19">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" ht="20.45" customHeight="1" spans="1:16">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4361,4 +4478,87 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="2" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="26.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:9">
+      <c r="A2" s="7">
+        <v>42782</v>
+      </c>
+      <c r="B2">
+        <f>SUM(D2:H2)</f>
+        <v>144.3</v>
+      </c>
+      <c r="C2">
+        <f>SUM(D2:G2)</f>
+        <v>94.3</v>
+      </c>
+      <c r="D2">
+        <v>12.5</v>
+      </c>
+      <c r="E2">
+        <v>20.4</v>
+      </c>
+      <c r="F2">
+        <v>38.4</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>